--- a/wastewater/raw-data/metadata-ww.xlsx
+++ b/wastewater/raw-data/metadata-ww.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/R_PHD_analysis/Chapter3/16S/DNA/wastewater/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="8_{C75E63C1-602C-403A-AA1D-9DC9295B0891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{862A77D1-3725-43A3-8CCE-0F86CBC595E6}"/>
+  <xr:revisionPtr revIDLastSave="236" documentId="8_{C75E63C1-602C-403A-AA1D-9DC9295B0891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17A7FB90-18E8-45C8-B81A-86DFEBC0CAF3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C3E7F182-0BA0-4696-AC68-8C1E60B91E04}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="90">
   <si>
     <t>Genotype</t>
   </si>
@@ -77,297 +77,150 @@
     <t>MBS1</t>
   </si>
   <si>
-    <t>LRV_0_1R1D1S</t>
-  </si>
-  <si>
     <t>MBS2</t>
   </si>
   <si>
-    <t>LRV_0_1R2D1S</t>
-  </si>
-  <si>
     <t>MBS3</t>
   </si>
   <si>
-    <t>LRV_0_1R3D1S</t>
-  </si>
-  <si>
     <t>MBS4</t>
   </si>
   <si>
-    <t>LRV_0_1R1D2S</t>
-  </si>
-  <si>
     <t>MBS5</t>
   </si>
   <si>
-    <t>LRV_0_1R2D2S</t>
-  </si>
-  <si>
     <t>MBS6</t>
   </si>
   <si>
-    <t>LRV_0_1R3D2S</t>
-  </si>
-  <si>
     <t>MBS7</t>
   </si>
   <si>
-    <t>LRV_0_1R1D3S</t>
-  </si>
-  <si>
     <t>MBS8</t>
   </si>
   <si>
-    <t>LRV_0_1R2D3S</t>
-  </si>
-  <si>
     <t>MBS9</t>
   </si>
   <si>
-    <t>LRV_0_1R3D3S</t>
-  </si>
-  <si>
     <t>MBC1S</t>
   </si>
   <si>
-    <t>LRV_0_1R1D1C</t>
-  </si>
-  <si>
     <t>MBC2S</t>
   </si>
   <si>
-    <t>LRV_0_1R2D1C</t>
-  </si>
-  <si>
     <t>MBC3S</t>
   </si>
   <si>
-    <t>LRV_0_1R3D1C</t>
-  </si>
-  <si>
     <t>MBC4S</t>
   </si>
   <si>
-    <t>LRV_0_1R1D2C</t>
-  </si>
-  <si>
     <t>MBC5S</t>
   </si>
   <si>
-    <t>LRV_0_1R2D2C</t>
-  </si>
-  <si>
     <t>MBC6S</t>
   </si>
   <si>
-    <t>LRV_0_1R3D2C</t>
-  </si>
-  <si>
     <t>MBC7S</t>
   </si>
   <si>
-    <t>LRV_0_1R1D3C</t>
-  </si>
-  <si>
     <t>MBC8S</t>
   </si>
   <si>
-    <t>LRV_0_1R2D3C</t>
-  </si>
-  <si>
     <t>MBC9S</t>
   </si>
   <si>
-    <t>LRV_0_1R3D3C</t>
-  </si>
-  <si>
     <t>MBS10</t>
   </si>
   <si>
-    <t>LRV_8-5_3R1D1S</t>
-  </si>
-  <si>
     <t>MBS11</t>
   </si>
   <si>
-    <t>LRV_8-5_3R2D1S</t>
-  </si>
-  <si>
     <t>MBS12</t>
   </si>
   <si>
-    <t>LRV_8-5_3R3D1S</t>
-  </si>
-  <si>
     <t>MBS13</t>
   </si>
   <si>
-    <t>LRV_8-5_3R1D2S</t>
-  </si>
-  <si>
     <t>MBS14</t>
   </si>
   <si>
-    <t>LRV_8-5_3R2D2S</t>
-  </si>
-  <si>
     <t>MBS15</t>
   </si>
   <si>
-    <t>LRV_8-5_3R3D2S</t>
-  </si>
-  <si>
     <t>MBS16</t>
   </si>
   <si>
-    <t>LRV_8-5_3R1D3S</t>
-  </si>
-  <si>
     <t>MBS17</t>
   </si>
   <si>
-    <t>LRV_8-5_3R2D3S</t>
-  </si>
-  <si>
     <t>MBS18</t>
   </si>
   <si>
-    <t>LRV_8-5_3R3D3S</t>
-  </si>
-  <si>
     <t>MBC10S</t>
   </si>
   <si>
-    <t>LRV_8-5_3R1D1C</t>
-  </si>
-  <si>
     <t>MBC11S</t>
   </si>
   <si>
-    <t>LRV_8-5_3R2D1C</t>
-  </si>
-  <si>
     <t>MBC13S</t>
   </si>
   <si>
-    <t>LRV_8-5_3R1D2C</t>
-  </si>
-  <si>
     <t>MBC14S</t>
   </si>
   <si>
-    <t>LRV_8-5_3R2D2C</t>
-  </si>
-  <si>
     <t>MBC16S</t>
   </si>
   <si>
-    <t>LRV_8-5_3R1D3C</t>
-  </si>
-  <si>
     <t>MBC17S</t>
   </si>
   <si>
-    <t>LRV_8-5_3R2D3C</t>
-  </si>
-  <si>
     <t>MBS19</t>
   </si>
   <si>
-    <t>LRV_12_3R1D1S</t>
-  </si>
-  <si>
     <t>MBS20</t>
   </si>
   <si>
-    <t>LRV_12_3R2D1S</t>
-  </si>
-  <si>
     <t>MBS21</t>
   </si>
   <si>
-    <t>LRV_12_3R3D1S</t>
-  </si>
-  <si>
     <t>MBS22</t>
   </si>
   <si>
-    <t>LRV_12_3R1D2S</t>
-  </si>
-  <si>
     <t>MBS24</t>
   </si>
   <si>
-    <t>LRV_12_3R3D2S</t>
-  </si>
-  <si>
     <t>MBS25</t>
   </si>
   <si>
-    <t>LRV_12_3R1D3S</t>
-  </si>
-  <si>
     <t>MBS26</t>
   </si>
   <si>
-    <t>LRV_12-3R2D3S</t>
-  </si>
-  <si>
     <t>MBS27</t>
   </si>
   <si>
-    <t>LRV_12_3R3D3S</t>
-  </si>
-  <si>
     <t>MBC19S</t>
   </si>
   <si>
-    <t>LRV_12_3R1D1C</t>
-  </si>
-  <si>
     <t>MBC20S</t>
   </si>
   <si>
-    <t>LRV_12_3R2D1C</t>
-  </si>
-  <si>
     <t>MBC21S</t>
   </si>
   <si>
-    <t>LRV_12_3R3D1C</t>
-  </si>
-  <si>
     <t>MBC22S</t>
   </si>
   <si>
-    <t>LRV_12_3R1D2C</t>
-  </si>
-  <si>
     <t>MBC23S</t>
   </si>
   <si>
-    <t>LRV_12_3R2D2C</t>
-  </si>
-  <si>
     <t>MBC24S</t>
   </si>
   <si>
-    <t>LRV_12_3R3D2C</t>
-  </si>
-  <si>
     <t>MBC26S</t>
   </si>
   <si>
-    <t>LRV_12_3R2D3C</t>
-  </si>
-  <si>
     <t>MBC27S</t>
   </si>
   <si>
-    <t>LRV_12_3R3D3C</t>
-  </si>
-  <si>
     <t>MBS29</t>
   </si>
   <si>
@@ -392,103 +245,67 @@
     <t>MBC28S</t>
   </si>
   <si>
-    <t>LR2_36_1R1D1C</t>
-  </si>
-  <si>
     <t>MBC29S</t>
   </si>
   <si>
-    <t>LR2_36_1R2D1C</t>
-  </si>
-  <si>
     <t>MBC30S</t>
   </si>
   <si>
-    <t>LR2_36_1R3D1C</t>
-  </si>
-  <si>
     <t>MBC31S</t>
   </si>
   <si>
-    <t>LR2_36_1R1D2C</t>
-  </si>
-  <si>
     <t>MBC32S</t>
   </si>
   <si>
-    <t>LR2_36_1R2D2C</t>
-  </si>
-  <si>
     <t>MBC33S</t>
   </si>
   <si>
-    <t>LR2_36_1R3D2C</t>
-  </si>
-  <si>
     <t>MBC34S</t>
   </si>
   <si>
-    <t>LR2_36_1R1D3C</t>
-  </si>
-  <si>
     <t>MBC35S</t>
   </si>
   <si>
-    <t>LR2_36_1R2D3C</t>
-  </si>
-  <si>
     <t>MBC36S</t>
   </si>
   <si>
-    <t>LR2_36_1R3D3C</t>
-  </si>
-  <si>
     <t>CO</t>
   </si>
   <si>
     <t>WW</t>
   </si>
   <si>
-    <t>MBC12S</t>
-  </si>
-  <si>
-    <t>MBC15S</t>
-  </si>
-  <si>
-    <t>MBC18S</t>
-  </si>
-  <si>
-    <t>MBC25S</t>
-  </si>
-  <si>
     <t>MBS23</t>
   </si>
   <si>
-    <t>MBS28</t>
-  </si>
-  <si>
-    <t>LR2_36_1R2D1S</t>
-  </si>
-  <si>
     <t>MBS30</t>
   </si>
   <si>
-    <t>LR2_36_1R1D2S</t>
-  </si>
-  <si>
-    <t>LR2_36_1R2D2S</t>
-  </si>
-  <si>
-    <t>LR2_36_1R3D2S</t>
-  </si>
-  <si>
-    <t>LR2_36_1R1D3S</t>
-  </si>
-  <si>
-    <t>LR2_36_1R2D3S</t>
-  </si>
-  <si>
-    <t>LR2_36_1R3D3S</t>
+    <t>LRV_0_1</t>
+  </si>
+  <si>
+    <t>LRV_8-5_3</t>
+  </si>
+  <si>
+    <t>LRV_12_3</t>
+  </si>
+  <si>
+    <t>LR2_36_1</t>
+  </si>
+  <si>
+    <t>anon</t>
+  </si>
+  <si>
+    <t>MBC15AS</t>
+  </si>
+  <si>
+    <t>MBC18AS</t>
+  </si>
+  <si>
+    <t>MBC25A</t>
+  </si>
+  <si>
+    <t>MBC12A</t>
   </si>
 </sst>
 </file>
@@ -530,9 +347,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -849,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B4268A-1D97-472C-9F40-B62EB46804E8}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:F36"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -868,6 +686,9 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
@@ -880,10 +701,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -895,15 +716,15 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -915,15 +736,15 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -935,15 +756,15 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -955,15 +776,15 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -975,15 +796,15 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -995,15 +816,15 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -1015,15 +836,15 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -1035,15 +856,15 @@
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -1055,15 +876,15 @@
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -1075,15 +896,15 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -1095,33 +916,35 @@
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
+      <c r="A13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="1">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>135</v>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -1133,15 +956,15 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -1153,33 +976,35 @@
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="1">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>135</v>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -1191,15 +1016,15 @@
         <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -1211,33 +1036,35 @@
         <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="1">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>135</v>
+      <c r="D19" s="2">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -1249,15 +1076,15 @@
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
@@ -1269,15 +1096,15 @@
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
@@ -1289,15 +1116,15 @@
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
@@ -1309,15 +1136,15 @@
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
@@ -1329,15 +1156,15 @@
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
@@ -1349,33 +1176,35 @@
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>135</v>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
@@ -1387,15 +1216,15 @@
         <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
@@ -1407,15 +1236,15 @@
         <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -1427,15 +1256,15 @@
         <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -1447,15 +1276,15 @@
         <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
@@ -1467,15 +1296,15 @@
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -1487,15 +1316,15 @@
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -1507,15 +1336,15 @@
         <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -1527,15 +1356,15 @@
         <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
@@ -1547,15 +1376,15 @@
         <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -1567,15 +1396,15 @@
         <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
@@ -1587,7 +1416,7 @@
         <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -1595,7 +1424,7 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -1607,15 +1436,15 @@
         <v>4</v>
       </c>
       <c r="F38" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
         <v>3</v>
@@ -1627,15 +1456,15 @@
         <v>4</v>
       </c>
       <c r="F39" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
         <v>3</v>
@@ -1647,15 +1476,15 @@
         <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
         <v>3</v>
@@ -1667,15 +1496,15 @@
         <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
@@ -1687,15 +1516,15 @@
         <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
@@ -1707,15 +1536,15 @@
         <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
         <v>3</v>
@@ -1727,15 +1556,15 @@
         <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
         <v>3</v>
@@ -1747,15 +1576,15 @@
         <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
         <v>3</v>
@@ -1767,15 +1596,15 @@
         <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -1787,15 +1616,15 @@
         <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
@@ -1807,15 +1636,15 @@
         <v>4</v>
       </c>
       <c r="F48" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
@@ -1827,15 +1656,15 @@
         <v>4</v>
       </c>
       <c r="F49" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
@@ -1847,15 +1676,15 @@
         <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
@@ -1867,15 +1696,15 @@
         <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
@@ -1887,15 +1716,15 @@
         <v>5</v>
       </c>
       <c r="F52" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -1907,15 +1736,15 @@
         <v>6</v>
       </c>
       <c r="F53" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
@@ -1927,15 +1756,15 @@
         <v>6</v>
       </c>
       <c r="F54" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -1947,15 +1776,15 @@
         <v>6</v>
       </c>
       <c r="F55" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C56" t="s">
         <v>8</v>
@@ -1967,15 +1796,15 @@
         <v>4</v>
       </c>
       <c r="F56" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C57" t="s">
         <v>8</v>
@@ -1987,12 +1816,12 @@
         <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B58" t="s">
         <v>83</v>
@@ -2007,15 +1836,15 @@
         <v>4</v>
       </c>
       <c r="F58" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C59" t="s">
         <v>8</v>
@@ -2027,15 +1856,15 @@
         <v>5</v>
       </c>
       <c r="F59" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="B60" s="1"/>
-      <c r="C60" t="s">
+      <c r="C60" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D60">
@@ -2045,15 +1874,15 @@
         <v>5</v>
       </c>
       <c r="F60" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C61" t="s">
         <v>8</v>
@@ -2065,15 +1894,15 @@
         <v>5</v>
       </c>
       <c r="F61" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="B62" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C62" t="s">
         <v>8</v>
@@ -2085,15 +1914,15 @@
         <v>6</v>
       </c>
       <c r="F62" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="B63" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C63" t="s">
         <v>8</v>
@@ -2105,15 +1934,15 @@
         <v>6</v>
       </c>
       <c r="F63" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="B64" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C64" t="s">
         <v>8</v>
@@ -2125,14 +1954,16 @@
         <v>6</v>
       </c>
       <c r="F64" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B65" s="1"/>
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>84</v>
+      </c>
       <c r="C65" t="s">
         <v>9</v>
       </c>
@@ -2143,15 +1974,15 @@
         <v>4</v>
       </c>
       <c r="F65" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
@@ -2163,12 +1994,12 @@
         <v>4</v>
       </c>
       <c r="F66" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
@@ -2181,15 +2012,15 @@
         <v>4</v>
       </c>
       <c r="F67" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="B68" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="C68" t="s">
         <v>9</v>
@@ -2201,15 +2032,15 @@
         <v>5</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B69" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="C69" t="s">
         <v>9</v>
@@ -2221,15 +2052,15 @@
         <v>5</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="B70" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="C70" t="s">
         <v>9</v>
@@ -2241,15 +2072,15 @@
         <v>5</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="B71" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="C71" t="s">
         <v>9</v>
@@ -2261,15 +2092,15 @@
         <v>6</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="B72" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="C72" t="s">
         <v>9</v>
@@ -2281,15 +2112,15 @@
         <v>6</v>
       </c>
       <c r="F72" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="B73" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="C73" t="s">
         <v>9</v>
@@ -2301,7 +2132,7 @@
         <v>6</v>
       </c>
       <c r="F73" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/wastewater/raw-data/metadata-ww.xlsx
+++ b/wastewater/raw-data/metadata-ww.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/R_PHD_analysis/Chapter3/16S/DNA/wastewater/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="236" documentId="8_{C75E63C1-602C-403A-AA1D-9DC9295B0891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17A7FB90-18E8-45C8-B81A-86DFEBC0CAF3}"/>
+  <xr:revisionPtr revIDLastSave="238" documentId="8_{C75E63C1-602C-403A-AA1D-9DC9295B0891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A40F9DC1-F606-410B-B9E5-8E86CC864ABA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C3E7F182-0BA0-4696-AC68-8C1E60B91E04}"/>
   </bookViews>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B4268A-1D97-472C-9F40-B62EB46804E8}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -980,7 +980,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B16" t="s">
@@ -1040,7 +1040,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B19" t="s">

--- a/wastewater/raw-data/metadata-ww.xlsx
+++ b/wastewater/raw-data/metadata-ww.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/R_PHD_analysis/Chapter3/16S/DNA/wastewater/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="238" documentId="8_{C75E63C1-602C-403A-AA1D-9DC9295B0891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A40F9DC1-F606-410B-B9E5-8E86CC864ABA}"/>
+  <xr:revisionPtr revIDLastSave="239" documentId="8_{C75E63C1-602C-403A-AA1D-9DC9295B0891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E99B0C3-B4F7-4654-9D2C-26B3E8E8B260}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C3E7F182-0BA0-4696-AC68-8C1E60B91E04}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="91">
   <si>
     <t>Genotype</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>MBC12A</t>
+  </si>
+  <si>
+    <t>MBT28</t>
   </si>
 </sst>
 </file>
@@ -667,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B4268A-1D97-472C-9F40-B62EB46804E8}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1959,7 +1962,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B65" t="s">
         <v>84</v>
